--- a/Document/EnemyTable.xlsx
+++ b/Document/EnemyTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF497EB-AEB0-4816-ACF2-BDFA9F91A63A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14817BEF-74A5-41F3-AAB9-D1B35456D06B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="36">
   <si>
     <t>ClonedFlesh</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>Nox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +515,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D1" activeCellId="2" sqref="H1 F1 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,11 +542,20 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>14</v>

--- a/Document/EnemyTable.xlsx
+++ b/Document/EnemyTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14817BEF-74A5-41F3-AAB9-D1B35456D06B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672F355B-362B-4396-A12E-57E7A747DCB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
   <si>
     <t>ClonedFlesh</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,118 @@
   </si>
   <si>
     <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crewman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetronCrewman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SniperCrewman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdCrewman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NullifierCrewman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtoShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scrambus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShockwaveMoa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RailgunMoa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FusionMoa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AntiMoa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robotic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsolatorBursa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DroverBursa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DenialBursa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeechOsprey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MineOsprey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OxiumOsprey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldOsprey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackDrone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScavengerDrone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EliteCrewman</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" activeCellId="2" sqref="H1 F1 D1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1268,6 +1380,742 @@
         <v>571.25</v>
       </c>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="1">
+        <v>60</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="1">
+        <v>150</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>57.13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1">
+        <v>60</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="1">
+        <v>150</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>57.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="1">
+        <v>60</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="1">
+        <v>150</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>171.38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1">
+        <v>100</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="1">
+        <v>200</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>232.79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="1">
+        <v>700</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="1">
+        <v>250</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>775.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1">
+        <v>100</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="1">
+        <v>50</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>57.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="1">
+        <v>60</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="1">
+        <v>150</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>232.79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="1">
+        <v>400</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>775.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="1">
+        <v>400</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>775.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="1">
+        <v>60</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="1">
+        <v>150</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>57.13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="1">
+        <v>60</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="1">
+        <v>150</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>263.73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="1">
+        <v>60</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="1">
+        <v>150</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>114.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="1">
+        <v>250</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="1">
+        <v>250</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>362.66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="1">
+        <v>50</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="1">
+        <v>500</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>228.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="1">
+        <v>700</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="1">
+        <v>200</v>
+      </c>
+      <c r="I38" s="4">
+        <v>40</v>
+      </c>
+      <c r="J38" s="4">
+        <v>571.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="1">
+        <v>700</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="1">
+        <v>200</v>
+      </c>
+      <c r="I39" s="4">
+        <v>40</v>
+      </c>
+      <c r="J39" s="4">
+        <v>571.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="1">
+        <v>700</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="1">
+        <v>200</v>
+      </c>
+      <c r="I40" s="4">
+        <v>40</v>
+      </c>
+      <c r="J40" s="4">
+        <v>571.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="1">
+        <v>15</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="1">
+        <v>100</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="1">
+        <v>50</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>155.19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="1">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="1">
+        <v>100</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="1">
+        <v>50</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>145.06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="1">
+        <v>750</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="1">
+        <v>150</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="1">
+        <v>40</v>
+      </c>
+      <c r="I43" s="4">
+        <v>11.76</v>
+      </c>
+      <c r="J43" s="4">
+        <v>197.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="1">
+        <v>35</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="1">
+        <v>50</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>57.13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="1">
+        <v>250</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="1">
+        <v>75</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>228.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="1">
+        <v>100</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="1">
+        <v>50</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>114.25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
